--- a/KRA PAO - RESONANT LOW PASS GATE/BOM.xlsx
+++ b/KRA PAO - RESONANT LOW PASS GATE/BOM.xlsx
@@ -161,6 +161,10 @@
       </rPr>
       <t>https://www.taydaelectronics.com/mini-toggle-switch-1m-series-3pdt-on-off-on.html</t>
     </r>
+    <r>
+      <rPr/>
+      <t xml:space="preserve"> I had some trouble with the size of the pins with this one, I just had to clamp them a bit using some pliers to make them thinner, then they went in with no issue.</t>
+    </r>
   </si>
   <si>
     <t>DAMP</t>
@@ -349,7 +353,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -377,10 +381,6 @@
       <u/>
       <color rgb="FF0000FF"/>
     </font>
-    <font>
-      <u/>
-      <color rgb="FF0000FF"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -402,45 +402,33 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="9">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFill="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" vertical="center"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" vertical="center"/>
+      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
     </xf>
     <xf borderId="0" fillId="2" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0" shrinkToFit="0" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -693,13 +681,13 @@
       <c r="B2" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D2" s="4">
         <v>1.0</v>
       </c>
-      <c r="E2" s="6"/>
+      <c r="E2" s="5"/>
     </row>
     <row r="3">
       <c r="A3" s="4" t="s">
@@ -714,7 +702,7 @@
       <c r="D3" s="4">
         <v>1.0</v>
       </c>
-      <c r="E3" s="6"/>
+      <c r="E3" s="5"/>
     </row>
     <row r="4">
       <c r="A4" s="4" t="s">
@@ -729,7 +717,7 @@
       <c r="D4" s="4">
         <v>3.0</v>
       </c>
-      <c r="E4" s="6"/>
+      <c r="E4" s="5"/>
     </row>
     <row r="5">
       <c r="A5" s="4" t="s">
@@ -744,7 +732,7 @@
       <c r="D5" s="4">
         <v>2.0</v>
       </c>
-      <c r="E5" s="6"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6">
       <c r="A6" s="4" t="s">
@@ -759,7 +747,7 @@
       <c r="D6" s="4">
         <v>10.0</v>
       </c>
-      <c r="E6" s="6"/>
+      <c r="E6" s="5"/>
     </row>
     <row r="7">
       <c r="A7" s="4" t="s">
@@ -768,13 +756,13 @@
       <c r="B7" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D7" s="4">
         <v>1.0</v>
       </c>
-      <c r="E7" s="6"/>
+      <c r="E7" s="5"/>
     </row>
     <row r="8">
       <c r="A8" s="4" t="s">
@@ -783,13 +771,13 @@
       <c r="B8" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D8" s="4">
         <v>1.0</v>
       </c>
-      <c r="E8" s="6"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9">
       <c r="A9" s="4">
@@ -798,13 +786,13 @@
       <c r="B9" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C9" s="5" t="s">
+      <c r="C9" s="4" t="s">
         <v>7</v>
       </c>
       <c r="D9" s="4">
         <v>1.0</v>
       </c>
-      <c r="E9" s="6"/>
+      <c r="E9" s="5"/>
     </row>
     <row r="10">
       <c r="A10" s="4" t="s">
@@ -819,7 +807,7 @@
       <c r="D10" s="4">
         <v>2.0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="6" t="s">
         <v>24</v>
       </c>
     </row>
@@ -836,7 +824,7 @@
       <c r="D11" s="4">
         <v>1.0</v>
       </c>
-      <c r="E11" s="6"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12">
       <c r="A12" s="4" t="s">
@@ -851,7 +839,7 @@
       <c r="D12" s="4">
         <v>4.0</v>
       </c>
-      <c r="E12" s="6"/>
+      <c r="E12" s="5"/>
     </row>
     <row r="13">
       <c r="A13" s="4" t="s">
@@ -866,7 +854,7 @@
       <c r="D13" s="4">
         <v>1.0</v>
       </c>
-      <c r="E13" s="6"/>
+      <c r="E13" s="5"/>
     </row>
     <row r="14">
       <c r="A14" s="4" t="s">
@@ -881,7 +869,7 @@
       <c r="D14" s="4">
         <v>4.0</v>
       </c>
-      <c r="E14" s="6"/>
+      <c r="E14" s="5"/>
     </row>
     <row r="15">
       <c r="A15" s="4" t="s">
@@ -896,7 +884,7 @@
       <c r="D15" s="4">
         <v>1.0</v>
       </c>
-      <c r="E15" s="6"/>
+      <c r="E15" s="5"/>
     </row>
     <row r="16">
       <c r="A16" s="4" t="s">
@@ -911,7 +899,7 @@
       <c r="D16" s="4">
         <v>1.0</v>
       </c>
-      <c r="E16" s="7" t="s">
+      <c r="E16" s="6" t="s">
         <v>41</v>
       </c>
     </row>
@@ -928,7 +916,7 @@
       <c r="D17" s="4">
         <v>1.0</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>45</v>
       </c>
     </row>
@@ -945,7 +933,7 @@
       <c r="D18" s="4">
         <v>1.0</v>
       </c>
-      <c r="E18" s="6"/>
+      <c r="E18" s="5"/>
     </row>
     <row r="19">
       <c r="A19" s="4" t="s">
@@ -960,7 +948,7 @@
       <c r="D19" s="4">
         <v>1.0</v>
       </c>
-      <c r="E19" s="6"/>
+      <c r="E19" s="5"/>
     </row>
     <row r="20">
       <c r="A20" s="4" t="s">
@@ -975,7 +963,7 @@
       <c r="D20" s="4">
         <v>1.0</v>
       </c>
-      <c r="E20" s="6"/>
+      <c r="E20" s="5"/>
     </row>
     <row r="21">
       <c r="A21" s="4" t="s">
@@ -990,7 +978,7 @@
       <c r="D21" s="4">
         <v>1.0</v>
       </c>
-      <c r="E21" s="6"/>
+      <c r="E21" s="5"/>
     </row>
     <row r="22">
       <c r="A22" s="4" t="s">
@@ -1005,7 +993,7 @@
       <c r="D22" s="4">
         <v>1.0</v>
       </c>
-      <c r="E22" s="6"/>
+      <c r="E22" s="5"/>
     </row>
     <row r="23">
       <c r="A23" s="4" t="s">
@@ -1020,7 +1008,7 @@
       <c r="D23" s="4">
         <v>1.0</v>
       </c>
-      <c r="E23" s="6"/>
+      <c r="E23" s="5"/>
     </row>
     <row r="24">
       <c r="A24" s="4" t="s">
@@ -1035,7 +1023,7 @@
       <c r="D24" s="4">
         <v>1.0</v>
       </c>
-      <c r="E24" s="6"/>
+      <c r="E24" s="5"/>
     </row>
     <row r="25">
       <c r="A25" s="4" t="s">
@@ -1050,7 +1038,7 @@
       <c r="D25" s="4">
         <v>1.0</v>
       </c>
-      <c r="E25" s="6"/>
+      <c r="E25" s="5"/>
     </row>
     <row r="26">
       <c r="A26" s="4" t="s">
@@ -1065,7 +1053,7 @@
       <c r="D26" s="4">
         <v>1.0</v>
       </c>
-      <c r="E26" s="6"/>
+      <c r="E26" s="5"/>
     </row>
     <row r="27">
       <c r="A27" s="4" t="s">
@@ -1080,7 +1068,7 @@
       <c r="D27" s="4">
         <v>1.0</v>
       </c>
-      <c r="E27" s="6"/>
+      <c r="E27" s="5"/>
     </row>
   </sheetData>
   <autoFilter ref="$A$1:$E$27">
@@ -1118,248 +1106,248 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="5" t="s">
+      <c r="A2" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E2" s="11"/>
+      <c r="D2" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E2" s="5"/>
     </row>
     <row r="3">
-      <c r="A3" s="5" t="s">
+      <c r="A3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E3" s="11"/>
+      <c r="D3" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E3" s="5"/>
     </row>
     <row r="4">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B4" s="11" t="s">
+      <c r="B4" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D4" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E4" s="11"/>
+      <c r="D4" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E4" s="5"/>
     </row>
     <row r="5">
-      <c r="A5" s="5">
+      <c r="A5" s="4">
         <v>10.0</v>
       </c>
-      <c r="B5" s="11" t="s">
+      <c r="B5" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="5">
+      <c r="D5" s="4">
         <v>2.0</v>
       </c>
-      <c r="E5" s="11"/>
+      <c r="E5" s="5"/>
     </row>
     <row r="6">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B6" s="11" t="s">
+      <c r="B6" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="C6" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D6" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E6" s="11"/>
+      <c r="D6" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B7" s="11" t="s">
+      <c r="B7" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="C7" s="11" t="s">
+      <c r="C7" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D7" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E7" s="11"/>
+      <c r="D7" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E7" s="5"/>
     </row>
     <row r="8">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="B8" s="11" t="s">
+      <c r="B8" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="C8" s="11" t="s">
+      <c r="C8" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D8" s="5">
+      <c r="D8" s="4">
         <v>2.0</v>
       </c>
-      <c r="E8" s="11"/>
+      <c r="E8" s="5"/>
     </row>
     <row r="9">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="5" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D9" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E9" s="11"/>
+      <c r="D9" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E9" s="5"/>
     </row>
     <row r="10">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="11" t="s">
+      <c r="B10" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="C10" s="11" t="s">
+      <c r="C10" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="D10" s="5">
+      <c r="D10" s="4">
         <v>2.0</v>
       </c>
-      <c r="E10" s="11"/>
+      <c r="E10" s="5"/>
     </row>
     <row r="11">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="C11" s="11" t="s">
+      <c r="C11" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="5">
+      <c r="D11" s="4">
         <v>2.0</v>
       </c>
-      <c r="E11" s="11"/>
+      <c r="E11" s="5"/>
     </row>
     <row r="12">
-      <c r="A12" s="5" t="s">
+      <c r="A12" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="11" t="s">
+      <c r="B12" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="11" t="s">
+      <c r="C12" s="5" t="s">
         <v>57</v>
       </c>
-      <c r="D12" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E12" s="11"/>
+      <c r="D12" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E12" s="5"/>
     </row>
     <row r="13">
-      <c r="A13" s="5" t="s">
+      <c r="A13" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="B13" s="11" t="s">
+      <c r="B13" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D13" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E13" s="11"/>
+      <c r="D13" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E13" s="5"/>
     </row>
     <row r="14">
-      <c r="A14" s="5" t="s">
+      <c r="A14" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="5" t="s">
         <v>64</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="C14" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="D14" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E14" s="11"/>
+      <c r="D14" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E14" s="5"/>
     </row>
     <row r="15">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="5" t="s">
         <v>89</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="5" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="5">
-        <v>1.0</v>
-      </c>
-      <c r="E15" s="12" t="s">
+      <c r="D15" s="4">
+        <v>1.0</v>
+      </c>
+      <c r="E15" s="6" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="5" t="s">
         <v>93</v>
       </c>
-      <c r="C16" s="11" t="s">
+      <c r="C16" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="5">
+      <c r="D16" s="4">
         <v>2.0</v>
       </c>
-      <c r="E16" s="11" t="s">
+      <c r="E16" s="5" t="s">
         <v>95</v>
       </c>
     </row>

--- a/KRA PAO - RESONANT LOW PASS GATE/BOM.xlsx
+++ b/KRA PAO - RESONANT LOW PASS GATE/BOM.xlsx
@@ -254,7 +254,7 @@
     <t>SINGLE ROW 10 MALE PIN HEADER STRIP</t>
   </si>
   <si>
-    <t>https://www.taydaelectronics.com/40-pin-2-00-mm-single-row-pin-header-strip.html</t>
+    <t>https://www.taydaelectronics.com/40-pin-2-54-mm-single-row-pin-header-strip.html</t>
   </si>
   <si>
     <t>TL074</t>
@@ -491,7 +491,7 @@
     <t>A-558</t>
   </si>
   <si>
-    <t>A-1299</t>
+    <t>A-197</t>
   </si>
   <si>
     <t>A-1138</t>
